--- a/housedevs.xlsx
+++ b/housedevs.xlsx
@@ -66,12 +66,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,9 +92,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -369,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,6 +677,3022 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>300</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>300</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>300</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>300</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>300</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>300</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>300</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>300</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>300</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>300</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>300</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>30</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>300</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>300</v>
+      </c>
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>300</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>300</v>
+      </c>
+      <c r="I25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>300</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>300</v>
+      </c>
+      <c r="I27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>300</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>300</v>
+      </c>
+      <c r="I29" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>300</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>30</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>300</v>
+      </c>
+      <c r="I31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>300</v>
+      </c>
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>30</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5</v>
+      </c>
+      <c r="F34" s="3">
+        <v>30</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>300</v>
+      </c>
+      <c r="I34" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>30</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>300</v>
+      </c>
+      <c r="I35" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1">
+        <v>30</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>300</v>
+      </c>
+      <c r="I36" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>30</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>300</v>
+      </c>
+      <c r="I37" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1">
+        <v>30</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>300</v>
+      </c>
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>30</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>300</v>
+      </c>
+      <c r="I39" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1">
+        <v>30</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>300</v>
+      </c>
+      <c r="I40" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>30</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>300</v>
+      </c>
+      <c r="I41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1">
+        <v>30</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>300</v>
+      </c>
+      <c r="I42" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1">
+        <v>30</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>300</v>
+      </c>
+      <c r="I43" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1">
+        <v>30</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>300</v>
+      </c>
+      <c r="I44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1">
+        <v>30</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>300</v>
+      </c>
+      <c r="I45" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1">
+        <v>30</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>300</v>
+      </c>
+      <c r="I46" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1">
+        <v>30</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>300</v>
+      </c>
+      <c r="I47" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1">
+        <v>30</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>300</v>
+      </c>
+      <c r="I48" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>30</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>300</v>
+      </c>
+      <c r="I49" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>5</v>
+      </c>
+      <c r="E50" s="5">
+        <v>5</v>
+      </c>
+      <c r="F50" s="5">
+        <v>30</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>300</v>
+      </c>
+      <c r="I50" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>10</v>
+      </c>
+      <c r="E51" s="3">
+        <v>5</v>
+      </c>
+      <c r="F51" s="3">
+        <v>30</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>300</v>
+      </c>
+      <c r="I51" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>10</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>30</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>15</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5</v>
+      </c>
+      <c r="F53" s="3">
+        <v>30</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>300</v>
+      </c>
+      <c r="I53" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1">
+        <v>30</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>300</v>
+      </c>
+      <c r="I54" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1">
+        <v>30</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>300</v>
+      </c>
+      <c r="I55" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>30</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>300</v>
+      </c>
+      <c r="I56" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1">
+        <v>30</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>300</v>
+      </c>
+      <c r="I57" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1">
+        <v>30</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>300</v>
+      </c>
+      <c r="I58" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1">
+        <v>30</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>300</v>
+      </c>
+      <c r="I59" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1">
+        <v>30</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>300</v>
+      </c>
+      <c r="I60" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1">
+        <v>30</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>300</v>
+      </c>
+      <c r="I61" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1">
+        <v>30</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>300</v>
+      </c>
+      <c r="I62" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1">
+        <v>30</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>300</v>
+      </c>
+      <c r="I63" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1">
+        <v>30</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>300</v>
+      </c>
+      <c r="I64" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1">
+        <v>30</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>300</v>
+      </c>
+      <c r="I65" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1">
+        <v>30</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>300</v>
+      </c>
+      <c r="I66" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1">
+        <v>30</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>300</v>
+      </c>
+      <c r="I67" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1">
+        <v>30</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>300</v>
+      </c>
+      <c r="I68" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1">
+        <v>30</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>300</v>
+      </c>
+      <c r="I69" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1">
+        <v>30</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>300</v>
+      </c>
+      <c r="I70" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+      <c r="D71" s="5">
+        <v>5</v>
+      </c>
+      <c r="E71" s="5">
+        <v>5</v>
+      </c>
+      <c r="F71" s="5">
+        <v>30</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <v>300</v>
+      </c>
+      <c r="I71" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>30</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>15</v>
+      </c>
+      <c r="E73" s="3">
+        <v>5</v>
+      </c>
+      <c r="F73" s="3">
+        <v>30</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>300</v>
+      </c>
+      <c r="I73" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <v>15</v>
+      </c>
+      <c r="E74" s="3">
+        <v>5</v>
+      </c>
+      <c r="F74" s="3">
+        <v>30</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>300</v>
+      </c>
+      <c r="I74" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1">
+        <v>30</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>300</v>
+      </c>
+      <c r="I75" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1">
+        <v>30</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>300</v>
+      </c>
+      <c r="I76" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1">
+        <v>30</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>300</v>
+      </c>
+      <c r="I77" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>5</v>
+      </c>
+      <c r="F78" s="1">
+        <v>30</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>300</v>
+      </c>
+      <c r="I78" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1">
+        <v>30</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>300</v>
+      </c>
+      <c r="I79" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1">
+        <v>30</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>300</v>
+      </c>
+      <c r="I80" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>5</v>
+      </c>
+      <c r="E81" s="1">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1">
+        <v>30</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>300</v>
+      </c>
+      <c r="I81" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>5</v>
+      </c>
+      <c r="E82" s="1">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1">
+        <v>30</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>300</v>
+      </c>
+      <c r="I82" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1">
+        <v>30</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>300</v>
+      </c>
+      <c r="I83" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>5</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5</v>
+      </c>
+      <c r="F84" s="1">
+        <v>30</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>300</v>
+      </c>
+      <c r="I84" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>5</v>
+      </c>
+      <c r="E85" s="1">
+        <v>5</v>
+      </c>
+      <c r="F85" s="1">
+        <v>30</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>300</v>
+      </c>
+      <c r="I85" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>5</v>
+      </c>
+      <c r="E86" s="1">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1">
+        <v>30</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>300</v>
+      </c>
+      <c r="I86" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>5</v>
+      </c>
+      <c r="E87" s="1">
+        <v>5</v>
+      </c>
+      <c r="F87" s="1">
+        <v>30</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>300</v>
+      </c>
+      <c r="I87" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>5</v>
+      </c>
+      <c r="E88" s="1">
+        <v>5</v>
+      </c>
+      <c r="F88" s="1">
+        <v>30</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>300</v>
+      </c>
+      <c r="I88" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>5</v>
+      </c>
+      <c r="E89" s="1">
+        <v>5</v>
+      </c>
+      <c r="F89" s="1">
+        <v>30</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>300</v>
+      </c>
+      <c r="I89" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>5</v>
+      </c>
+      <c r="E90" s="1">
+        <v>5</v>
+      </c>
+      <c r="F90" s="1">
+        <v>30</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>300</v>
+      </c>
+      <c r="I90" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>5</v>
+      </c>
+      <c r="F91" s="1">
+        <v>30</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>300</v>
+      </c>
+      <c r="I91" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>5</v>
+      </c>
+      <c r="E92" s="1">
+        <v>5</v>
+      </c>
+      <c r="F92" s="1">
+        <v>30</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>300</v>
+      </c>
+      <c r="I92" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>5</v>
+      </c>
+      <c r="E93" s="1">
+        <v>5</v>
+      </c>
+      <c r="F93" s="1">
+        <v>30</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>300</v>
+      </c>
+      <c r="I93" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1">
+        <v>5</v>
+      </c>
+      <c r="F94" s="1">
+        <v>30</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>300</v>
+      </c>
+      <c r="I94" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>5</v>
+      </c>
+      <c r="E95" s="1">
+        <v>5</v>
+      </c>
+      <c r="F95" s="1">
+        <v>30</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>300</v>
+      </c>
+      <c r="I95" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>5</v>
+      </c>
+      <c r="E96" s="1">
+        <v>5</v>
+      </c>
+      <c r="F96" s="1">
+        <v>30</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>300</v>
+      </c>
+      <c r="I96" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1">
+        <v>30</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>300</v>
+      </c>
+      <c r="I97" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>5</v>
+      </c>
+      <c r="E98" s="1">
+        <v>5</v>
+      </c>
+      <c r="F98" s="1">
+        <v>30</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>300</v>
+      </c>
+      <c r="I98" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1">
+        <v>5</v>
+      </c>
+      <c r="F99" s="1">
+        <v>30</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>300</v>
+      </c>
+      <c r="I99" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1">
+        <v>5</v>
+      </c>
+      <c r="F100" s="1">
+        <v>30</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>300</v>
+      </c>
+      <c r="I100" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>5</v>
+      </c>
+      <c r="E101" s="1">
+        <v>5</v>
+      </c>
+      <c r="F101" s="1">
+        <v>30</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>300</v>
+      </c>
+      <c r="I101" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>5</v>
+      </c>
+      <c r="E102" s="1">
+        <v>5</v>
+      </c>
+      <c r="F102" s="1">
+        <v>30</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>300</v>
+      </c>
+      <c r="I102" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1">
+        <v>5</v>
+      </c>
+      <c r="F103" s="1">
+        <v>30</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>300</v>
+      </c>
+      <c r="I103" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>5</v>
+      </c>
+      <c r="E104" s="1">
+        <v>5</v>
+      </c>
+      <c r="F104" s="1">
+        <v>30</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>300</v>
+      </c>
+      <c r="I104" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>5</v>
+      </c>
+      <c r="E105" s="1">
+        <v>5</v>
+      </c>
+      <c r="F105" s="1">
+        <v>30</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>300</v>
+      </c>
+      <c r="I105" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>5</v>
+      </c>
+      <c r="E106" s="1">
+        <v>5</v>
+      </c>
+      <c r="F106" s="1">
+        <v>30</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>300</v>
+      </c>
+      <c r="I106" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>5</v>
+      </c>
+      <c r="E107" s="1">
+        <v>5</v>
+      </c>
+      <c r="F107" s="1">
+        <v>30</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>300</v>
+      </c>
+      <c r="I107" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1">
+        <v>5</v>
+      </c>
+      <c r="F108" s="1">
+        <v>30</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>300</v>
+      </c>
+      <c r="I108" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1">
+        <v>5</v>
+      </c>
+      <c r="F109" s="1">
+        <v>30</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>300</v>
+      </c>
+      <c r="I109" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1">
+        <v>5</v>
+      </c>
+      <c r="F110" s="1">
+        <v>30</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>300</v>
+      </c>
+      <c r="I110" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>5</v>
+      </c>
+      <c r="E111" s="1">
+        <v>5</v>
+      </c>
+      <c r="F111" s="1">
+        <v>30</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>300</v>
+      </c>
+      <c r="I111" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1">
+        <v>5</v>
+      </c>
+      <c r="F112" s="1">
+        <v>30</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>300</v>
+      </c>
+      <c r="I112" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1">
+        <v>5</v>
+      </c>
+      <c r="F113" s="1">
+        <v>30</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>300</v>
+      </c>
+      <c r="I113" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1">
+        <v>5</v>
+      </c>
+      <c r="F114" s="1">
+        <v>30</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>300</v>
+      </c>
+      <c r="I114" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
